--- a/data/trans_dic/P23_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo</t>
+          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo (tasa de respuesta: 98,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,07%</t>
+          <t>16,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,46%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,08%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>11,75%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>20,72%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 13,15</t>
+          <t>5,12; 17,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,95; 23,92</t>
+          <t>9,89; 27,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,95; 12,68</t>
+          <t>6,38; 13,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,55; 26,97</t>
+          <t>7,98; 23,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 19,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,27; 18,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,5; 16,93</t>
+          <t>11,92; 24,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,56; 23,62</t>
+          <t>11,27; 19,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,74; 15,51</t>
+          <t>10,24; 17,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,24; 18,94</t>
+          <t>18,8; 32,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,02; 13,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,75; 23,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>10,13; 19,02</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>11,81; 21,64</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>9,37; 14,35</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>15,45; 26,93</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>20,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>18,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>19,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
+          <t>18,06%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
           <t>17,84%</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>16,62%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>19,57%</t>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,36; 27,62</t>
+          <t>16,83; 25,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,21; 20,56</t>
+          <t>14,44; 23,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 22,68</t>
+          <t>14,29; 22,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,34; 22,98</t>
+          <t>13,81; 22,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,7; 22,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,95; 22,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,78; 18,15</t>
+          <t>16,46; 25,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,9; 24,39</t>
+          <t>16,35; 23,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 23,41</t>
+          <t>12,48; 17,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,77; 20,12</t>
+          <t>14,48; 22,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,47; 19,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 22,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>17,43; 23,92</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>16,87; 22,04</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>14,26; 19,05</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>14,99; 20,75</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,46%</t>
+          <t>18,62%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,74%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>17,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>15,79%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>16,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14,67%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>16,76%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,57; 20,9</t>
+          <t>13,86; 24,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,66; 14,65</t>
+          <t>8,56; 15,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 21,55</t>
+          <t>13,42; 21,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,07; 20,26</t>
+          <t>10,27; 18,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,05; 23,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,06; 20,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,14; 18,93</t>
+          <t>16,96; 26,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,73; 20,61</t>
+          <t>14,3; 21,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,51; 21,41</t>
+          <t>13,06; 18,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 16,9</t>
+          <t>15,46; 24,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 19,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,29; 19,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>16,65; 23,47</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>12,11; 17,36</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 18,93</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 20,04</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,1%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>21,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16,04%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,61%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>17,47%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 21,1</t>
+          <t>11,97; 19,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,15; 17,79</t>
+          <t>10,69; 18,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,64; 18,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,21; 21,33</t>
+          <t>16,95; 27,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,06; 20,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,31; 19,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,33; 16,98</t>
+          <t>13,93; 20,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,5; 21,56</t>
+          <t>11,08; 18,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,28; 19,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,59; 17,55</t>
+          <t>9,47; 16,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,01; 16,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,99; 20,58</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13,63; 19,14</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,08; 17,85</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>14,69; 20,58</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16,95%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,43%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17,63%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18,8%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14,97%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,12%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>16,35%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>15,43%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>17,88%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14,64; 19,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13,31; 18,35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13,75; 18,5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15,27; 20,49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,7; 21,08</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15,49; 19,15</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13,36; 16,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>15,92; 20,62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>16,18; 19,51</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>14,95; 18,1</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>14,2; 17,08</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>16,29; 19,55</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo (tasa de respuesta: 98,65%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31600</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>75163</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>63576</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>62311</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>67401</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>92249</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>116602</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>141866</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>99000</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>167413</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>180177</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>204177</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15978; 53529</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>46294; 128636</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>43687; 92015</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>34020; 99179</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>46637; 95157</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>69112; 120312</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>86914; 147213</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>105143; 184160</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>71285; 133829</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>127680; 233988</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>143652; 220048</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>152280; 265378</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>189322</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>217303</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>286509</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>183214</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>196875</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>239971</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>224596</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>194677</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>386197</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>457274</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>511105</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>377890</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>153673; 236668</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>169111; 273116</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>228524; 359412</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>143714; 231346</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>159432; 250094</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>199317; 283839</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>186492; 264124</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>156074; 237857</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>328101; 450076</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>403178; 526886</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>441098; 589323</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>317573; 439719</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>131359</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>96330</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>185812</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>114349</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>160809</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>163602</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>180943</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>169987</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>292168</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>259931</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>366755</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>284336</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>97732; 173231</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>71364; 127137</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>145446; 231969</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>84289; 149188</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>130091; 202561</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>134087; 202853</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>149640; 217140</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>135353; 211044</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>245131; 345600</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>214645; 307677</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>312870; 422017</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>239707; 340076</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>206850</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>120066</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>229695</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>230336</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>109330</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>119845</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>437186</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>229396</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>349540</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>163728; 266182</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>88205; 155727</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>179032; 285413</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>189237; 278068</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>82492; 138357</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>89459; 155039</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>371726; 521906</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>189615; 280206</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>293914; 411897</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>448.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>484.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>472.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>559131</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>508862</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>535897</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>589568</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>655420</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>605152</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>522140</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>626375</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1214551</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1114014</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1058037</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1215943</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>482835; 640098</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>438872; 605342</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>463115; 623240</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>510504; 685226</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>582137; 734726</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>544312; 673202</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>465997; 590160</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>550457; 712872</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1097554; 1323854</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1018628; 1232949</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>973792; 1171337</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1108275; 1329671</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
